--- a/rpa/range_style.xlsx
+++ b/rpa/range_style.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>90</v>
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -501,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -512,10 +512,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -523,21 +523,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>83</v>
+      <c r="B6" s="4" t="n">
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -545,54 +545,54 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>74</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>79</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>83</v>
+      <c r="B8" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>84</v>
+      <c r="B9" s="4" t="n">
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>70</v>
+      <c r="B10" s="5" t="n">
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>4</v>
+      <c r="B11" s="5" t="n">
+        <v>81</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
